--- a/results.xlsx
+++ b/results.xlsx
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1418,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1746,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2033,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2197,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="M44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2320,7 +2320,7 @@
         <v>5</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2361,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="M48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="M49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="M51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2525,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="M52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="M53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="M54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="M55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2689,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="M58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2812,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="M59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="M60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="M62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="M63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="M64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="M65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3099,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="M66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3140,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="M67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3222,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="M69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="M70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="M74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="M76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3550,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="M77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3632,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="M79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="M80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="M82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3796,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="M83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3837,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="M84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="M86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="M88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="M91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4165,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="M92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4247,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="M94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="M95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4329,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="M96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4452,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="M99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4616,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="M103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4739,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="M106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4780,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="M107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="M108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4862,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="M109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4903,7 +4903,7 @@
         <v>5</v>
       </c>
       <c r="M110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4944,7 +4944,7 @@
         <v>3</v>
       </c>
       <c r="M111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5026,7 +5026,7 @@
         <v>6</v>
       </c>
       <c r="M113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5108,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="M115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5190,7 +5190,7 @@
         <v>5</v>
       </c>
       <c r="M117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5272,7 +5272,7 @@
         <v>5</v>
       </c>
       <c r="M119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5313,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="M120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5354,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="M121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5395,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="M122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5436,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="M123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5477,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="M124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5518,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="M125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5600,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="M127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5641,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="M128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5682,7 +5682,7 @@
         <v>2</v>
       </c>
       <c r="M129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5723,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="M130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5764,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="M131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="M132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="M134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="M135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6010,7 +6010,7 @@
         <v>5</v>
       </c>
       <c r="M137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="M138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="M140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6174,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="M141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6256,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="M143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6297,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="M144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6338,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="M145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6420,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="M147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6461,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="M148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6502,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="M149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="M150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6625,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="M152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6666,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="M153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="M154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="M155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="M157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6912,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="M159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7035,7 +7035,7 @@
         <v>5</v>
       </c>
       <c r="M162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7076,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="M163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7117,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="M164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7158,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="M165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7240,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="M167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7281,7 +7281,7 @@
         <v>6</v>
       </c>
       <c r="M168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="M170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7404,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="M171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="M172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="M173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7527,7 +7527,7 @@
         <v>6</v>
       </c>
       <c r="M174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7568,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="M175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7650,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="M177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7691,7 +7691,7 @@
         <v>5</v>
       </c>
       <c r="M178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="M179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7814,7 +7814,7 @@
         <v>6</v>
       </c>
       <c r="M181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="M182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="M183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7937,7 +7937,7 @@
         <v>4</v>
       </c>
       <c r="M184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="M185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8019,7 +8019,7 @@
         <v>6</v>
       </c>
       <c r="M186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8101,7 +8101,7 @@
         <v>6</v>
       </c>
       <c r="M188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8142,7 +8142,7 @@
         <v>6</v>
       </c>
       <c r="M189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="M190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8224,7 +8224,7 @@
         <v>6</v>
       </c>
       <c r="M191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="M192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="M193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8347,7 +8347,7 @@
         <v>2</v>
       </c>
       <c r="M194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="M195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="M196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="M197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8511,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="M198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="M199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="M200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8675,7 +8675,7 @@
         <v>5</v>
       </c>
       <c r="M202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8757,7 +8757,7 @@
         <v>6</v>
       </c>
       <c r="M204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8839,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="M206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8880,7 +8880,7 @@
         <v>3</v>
       </c>
       <c r="M207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -8921,7 +8921,7 @@
         <v>6</v>
       </c>
       <c r="M208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="M209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9003,7 +9003,7 @@
         <v>3</v>
       </c>
       <c r="M210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9044,7 +9044,7 @@
         <v>6</v>
       </c>
       <c r="M211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9126,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="M213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="M214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9208,7 +9208,7 @@
         <v>2</v>
       </c>
       <c r="M215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9249,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="M216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="M217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9413,7 +9413,7 @@
         <v>5</v>
       </c>
       <c r="M220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9495,7 +9495,7 @@
         <v>5</v>
       </c>
       <c r="M222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="M224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9618,7 +9618,7 @@
         <v>5</v>
       </c>
       <c r="M225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9659,7 +9659,7 @@
         <v>4</v>
       </c>
       <c r="M226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9782,7 +9782,7 @@
         <v>4</v>
       </c>
       <c r="M229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9823,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="M230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9864,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="M231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9905,7 +9905,7 @@
         <v>6</v>
       </c>
       <c r="M232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="M233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9987,7 +9987,7 @@
         <v>3</v>
       </c>
       <c r="M234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10028,7 +10028,7 @@
         <v>3</v>
       </c>
       <c r="M235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10069,7 +10069,7 @@
         <v>5</v>
       </c>
       <c r="M236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10151,7 +10151,7 @@
         <v>6</v>
       </c>
       <c r="M238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10192,7 +10192,7 @@
         <v>6</v>
       </c>
       <c r="M239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10233,7 +10233,7 @@
         <v>3</v>
       </c>
       <c r="M240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10274,7 +10274,7 @@
         <v>6</v>
       </c>
       <c r="M241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="M242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10356,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="M243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10397,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="M244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10438,7 +10438,7 @@
         <v>3</v>
       </c>
       <c r="M245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10479,7 +10479,7 @@
         <v>5</v>
       </c>
       <c r="M246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10520,7 +10520,7 @@
         <v>2</v>
       </c>
       <c r="M247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10561,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="M248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="M249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10684,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="M251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10725,7 +10725,7 @@
         <v>3</v>
       </c>
       <c r="M252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="M253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10807,7 +10807,7 @@
         <v>5</v>
       </c>
       <c r="M254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="M255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="M256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10930,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="M257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11012,7 +11012,7 @@
         <v>4</v>
       </c>
       <c r="M259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="M260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11094,7 +11094,7 @@
         <v>2</v>
       </c>
       <c r="M261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11176,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="M263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11217,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="M264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="M265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11340,7 +11340,7 @@
         <v>6</v>
       </c>
       <c r="M267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11381,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="M268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11422,7 +11422,7 @@
         <v>5</v>
       </c>
       <c r="M269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11463,7 +11463,7 @@
         <v>4</v>
       </c>
       <c r="M270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="M271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11545,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="M272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11586,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="M273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11627,7 +11627,7 @@
         <v>6</v>
       </c>
       <c r="M274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11709,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="M276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="M278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="M279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11873,7 +11873,7 @@
         <v>3</v>
       </c>
       <c r="M280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11914,7 +11914,7 @@
         <v>6</v>
       </c>
       <c r="M281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -11996,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="M283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="M284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="M285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="M286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12160,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="M287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="M288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12242,7 +12242,7 @@
         <v>4</v>
       </c>
       <c r="M289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12406,7 +12406,7 @@
         <v>4</v>
       </c>
       <c r="M293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12447,7 +12447,7 @@
         <v>3</v>
       </c>
       <c r="M294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12529,7 +12529,7 @@
         <v>5</v>
       </c>
       <c r="M296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12570,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="M297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12611,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="M298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12652,7 +12652,7 @@
         <v>6</v>
       </c>
       <c r="M299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12693,7 +12693,7 @@
         <v>5</v>
       </c>
       <c r="M300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12734,7 +12734,7 @@
         <v>3</v>
       </c>
       <c r="M301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="M302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12816,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="M303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12857,7 +12857,7 @@
         <v>5</v>
       </c>
       <c r="M304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="M305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -12939,7 +12939,7 @@
         <v>3</v>
       </c>
       <c r="M306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -12980,7 +12980,7 @@
         <v>3</v>
       </c>
       <c r="M307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13021,7 +13021,7 @@
         <v>4</v>
       </c>
       <c r="M308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13144,7 +13144,7 @@
         <v>3</v>
       </c>
       <c r="M311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13185,7 +13185,7 @@
         <v>2</v>
       </c>
       <c r="M312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13226,7 +13226,7 @@
         <v>4</v>
       </c>
       <c r="M313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13267,7 +13267,7 @@
         <v>6</v>
       </c>
       <c r="M314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13308,7 +13308,7 @@
         <v>6</v>
       </c>
       <c r="M315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="M317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13431,7 +13431,7 @@
         <v>3</v>
       </c>
       <c r="M318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13472,7 +13472,7 @@
         <v>3</v>
       </c>
       <c r="M319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13513,7 +13513,7 @@
         <v>5</v>
       </c>
       <c r="M320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="M321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13595,7 +13595,7 @@
         <v>3</v>
       </c>
       <c r="M322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13636,7 +13636,7 @@
         <v>2</v>
       </c>
       <c r="M323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="M324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13759,7 +13759,7 @@
         <v>2</v>
       </c>
       <c r="M326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13800,7 +13800,7 @@
         <v>3</v>
       </c>
       <c r="M327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13841,7 +13841,7 @@
         <v>5</v>
       </c>
       <c r="M328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="M329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -13923,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="M330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -13964,7 +13964,7 @@
         <v>6</v>
       </c>
       <c r="M331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14005,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="M332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14046,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="M333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14087,7 +14087,7 @@
         <v>3</v>
       </c>
       <c r="M334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14169,7 +14169,7 @@
         <v>6</v>
       </c>
       <c r="M336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14210,7 +14210,7 @@
         <v>5</v>
       </c>
       <c r="M337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14251,7 +14251,7 @@
         <v>6</v>
       </c>
       <c r="M338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14292,7 +14292,7 @@
         <v>5</v>
       </c>
       <c r="M339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="M340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="M341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -14415,7 +14415,7 @@
         <v>3</v>
       </c>
       <c r="M342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14456,7 +14456,7 @@
         <v>4</v>
       </c>
       <c r="M343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -14538,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="M345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -14579,7 +14579,7 @@
         <v>3</v>
       </c>
       <c r="M346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14620,7 +14620,7 @@
         <v>1</v>
       </c>
       <c r="M347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="M348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -14702,7 +14702,7 @@
         <v>6</v>
       </c>
       <c r="M349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -14743,7 +14743,7 @@
         <v>4</v>
       </c>
       <c r="M350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="M351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -14825,7 +14825,7 @@
         <v>4</v>
       </c>
       <c r="M352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -15030,7 +15030,7 @@
         <v>4</v>
       </c>
       <c r="M357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="M358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="M360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -15194,7 +15194,7 @@
         <v>5</v>
       </c>
       <c r="M361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -15235,7 +15235,7 @@
         <v>2</v>
       </c>
       <c r="M362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:13">
@@ -15358,7 +15358,7 @@
         <v>2</v>
       </c>
       <c r="M365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:13">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="M366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -15440,7 +15440,7 @@
         <v>3</v>
       </c>
       <c r="M367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="M368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="M369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -15604,7 +15604,7 @@
         <v>6</v>
       </c>
       <c r="M371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:13">
@@ -15645,7 +15645,7 @@
         <v>4</v>
       </c>
       <c r="M372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -15686,7 +15686,7 @@
         <v>3</v>
       </c>
       <c r="M373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:13">
@@ -15727,7 +15727,7 @@
         <v>4</v>
       </c>
       <c r="M374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -15768,7 +15768,7 @@
         <v>3</v>
       </c>
       <c r="M375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:13">
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="M376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:13">
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="M377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:13">
@@ -15891,7 +15891,7 @@
         <v>4</v>
       </c>
       <c r="M378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:13">
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="M379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -16014,7 +16014,7 @@
         <v>3</v>
       </c>
       <c r="M381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="M382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:13">
@@ -16137,7 +16137,7 @@
         <v>4</v>
       </c>
       <c r="M384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:13">
@@ -16178,7 +16178,7 @@
         <v>3</v>
       </c>
       <c r="M385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -16219,7 +16219,7 @@
         <v>3</v>
       </c>
       <c r="M386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:13">
@@ -16260,7 +16260,7 @@
         <v>2</v>
       </c>
       <c r="M387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:13">
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="M388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:13">
@@ -16342,7 +16342,7 @@
         <v>6</v>
       </c>
       <c r="M389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -16424,7 +16424,7 @@
         <v>3</v>
       </c>
       <c r="M391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:13">
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
       <c r="M392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:13">
@@ -16547,7 +16547,7 @@
         <v>6</v>
       </c>
       <c r="M394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -16588,7 +16588,7 @@
         <v>6</v>
       </c>
       <c r="M395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:13">
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="M396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="M399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -16793,7 +16793,7 @@
         <v>2</v>
       </c>
       <c r="M400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -16834,7 +16834,7 @@
         <v>5</v>
       </c>
       <c r="M401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -16875,7 +16875,7 @@
         <v>2</v>
       </c>
       <c r="M402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="M403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -16957,7 +16957,7 @@
         <v>4</v>
       </c>
       <c r="M404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="M405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:13">
@@ -17039,7 +17039,7 @@
         <v>6</v>
       </c>
       <c r="M406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:13">
@@ -17080,7 +17080,7 @@
         <v>5</v>
       </c>
       <c r="M407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -17121,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="M408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -17162,7 +17162,7 @@
         <v>6</v>
       </c>
       <c r="M409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -17203,7 +17203,7 @@
         <v>3</v>
       </c>
       <c r="M410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="M411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -17285,7 +17285,7 @@
         <v>2</v>
       </c>
       <c r="M412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -17326,7 +17326,7 @@
         <v>3</v>
       </c>
       <c r="M413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -17449,7 +17449,7 @@
         <v>6</v>
       </c>
       <c r="M416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -17490,7 +17490,7 @@
         <v>6</v>
       </c>
       <c r="M417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:13">
@@ -17531,7 +17531,7 @@
         <v>4</v>
       </c>
       <c r="M418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:13">
@@ -17572,7 +17572,7 @@
         <v>5</v>
       </c>
       <c r="M419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:13">
@@ -17613,7 +17613,7 @@
         <v>4</v>
       </c>
       <c r="M420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:13">
@@ -17654,7 +17654,7 @@
         <v>6</v>
       </c>
       <c r="M421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:13">
@@ -17695,7 +17695,7 @@
         <v>3</v>
       </c>
       <c r="M422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:13">
@@ -17777,7 +17777,7 @@
         <v>3</v>
       </c>
       <c r="M424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:13">
@@ -17818,7 +17818,7 @@
         <v>5</v>
       </c>
       <c r="M425" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -17900,7 +17900,7 @@
         <v>6</v>
       </c>
       <c r="M427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:13">
@@ -17941,7 +17941,7 @@
         <v>5</v>
       </c>
       <c r="M428" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:13">
@@ -18023,7 +18023,7 @@
         <v>4</v>
       </c>
       <c r="M430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:13">
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="M431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:13">
@@ -18105,7 +18105,7 @@
         <v>6</v>
       </c>
       <c r="M432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:13">
@@ -18228,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="M435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:13">
@@ -18269,7 +18269,7 @@
         <v>1</v>
       </c>
       <c r="M436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:13">
@@ -18310,7 +18310,7 @@
         <v>3</v>
       </c>
       <c r="M437" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:13">
@@ -18351,7 +18351,7 @@
         <v>2</v>
       </c>
       <c r="M438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:13">
@@ -18433,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="M440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:13">
@@ -18474,7 +18474,7 @@
         <v>2</v>
       </c>
       <c r="M441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:13">
@@ -18556,7 +18556,7 @@
         <v>2</v>
       </c>
       <c r="M443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:13">
@@ -18597,7 +18597,7 @@
         <v>3</v>
       </c>
       <c r="M444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:13">
@@ -18638,7 +18638,7 @@
         <v>6</v>
       </c>
       <c r="M445" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:13">
@@ -18679,7 +18679,7 @@
         <v>4</v>
       </c>
       <c r="M446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:13">
@@ -18761,7 +18761,7 @@
         <v>3</v>
       </c>
       <c r="M448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:13">
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="M449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -18843,7 +18843,7 @@
         <v>5</v>
       </c>
       <c r="M450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -18884,7 +18884,7 @@
         <v>3</v>
       </c>
       <c r="M451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:13">
@@ -18925,7 +18925,7 @@
         <v>3</v>
       </c>
       <c r="M452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:13">
@@ -18966,7 +18966,7 @@
         <v>5</v>
       </c>
       <c r="M453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:13">
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
       <c r="M454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:13">
@@ -19048,7 +19048,7 @@
         <v>4</v>
       </c>
       <c r="M455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:13">
@@ -19130,7 +19130,7 @@
         <v>3</v>
       </c>
       <c r="M457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:13">
@@ -19212,7 +19212,7 @@
         <v>3</v>
       </c>
       <c r="M459" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:13">
@@ -19253,7 +19253,7 @@
         <v>6</v>
       </c>
       <c r="M460" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:13">
@@ -19376,7 +19376,7 @@
         <v>5</v>
       </c>
       <c r="M463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -19417,7 +19417,7 @@
         <v>6</v>
       </c>
       <c r="M464" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:13">
@@ -19458,7 +19458,7 @@
         <v>3</v>
       </c>
       <c r="M465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:13">
@@ -19499,7 +19499,7 @@
         <v>4</v>
       </c>
       <c r="M466" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:13">
@@ -19540,7 +19540,7 @@
         <v>0</v>
       </c>
       <c r="M467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -19581,7 +19581,7 @@
         <v>2</v>
       </c>
       <c r="M468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:13">
@@ -19663,7 +19663,7 @@
         <v>3</v>
       </c>
       <c r="M470" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:13">
@@ -19704,7 +19704,7 @@
         <v>2</v>
       </c>
       <c r="M471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:13">
@@ -19786,7 +19786,7 @@
         <v>2</v>
       </c>
       <c r="M473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:13">
@@ -19827,7 +19827,7 @@
         <v>5</v>
       </c>
       <c r="M474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:13">
@@ -19868,7 +19868,7 @@
         <v>6</v>
       </c>
       <c r="M475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:13">
@@ -19909,7 +19909,7 @@
         <v>6</v>
       </c>
       <c r="M476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:13">
@@ -19950,7 +19950,7 @@
         <v>2</v>
       </c>
       <c r="M477" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:13">
@@ -20032,7 +20032,7 @@
         <v>1</v>
       </c>
       <c r="M479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:13">
@@ -20073,7 +20073,7 @@
         <v>5</v>
       </c>
       <c r="M480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:13">
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="M484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:13">
@@ -20278,7 +20278,7 @@
         <v>2</v>
       </c>
       <c r="M485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:13">
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="M486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:13">
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="M487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:13">
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="M489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:13">
@@ -20483,7 +20483,7 @@
         <v>3</v>
       </c>
       <c r="M490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:13">
@@ -20524,7 +20524,7 @@
         <v>0</v>
       </c>
       <c r="M491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:13">
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="M492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:13">
@@ -20606,7 +20606,7 @@
         <v>5</v>
       </c>
       <c r="M493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:13">
@@ -20647,7 +20647,7 @@
         <v>3</v>
       </c>
       <c r="M494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:13">
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
       <c r="M495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:13">
@@ -20729,7 +20729,7 @@
         <v>3</v>
       </c>
       <c r="M496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:13">
@@ -20770,7 +20770,7 @@
         <v>4</v>
       </c>
       <c r="M497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:13">
@@ -20811,7 +20811,7 @@
         <v>6</v>
       </c>
       <c r="M498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:13">
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="M499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:13">
@@ -20893,7 +20893,7 @@
         <v>3</v>
       </c>
       <c r="M500" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:13">
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="M501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:13">
@@ -20975,7 +20975,7 @@
         <v>5</v>
       </c>
       <c r="M502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:13">
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="M503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:13">
@@ -21057,7 +21057,7 @@
         <v>5</v>
       </c>
       <c r="M504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:13">
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="M505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:13">
@@ -21180,7 +21180,7 @@
         <v>5</v>
       </c>
       <c r="M507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:13">
@@ -21221,7 +21221,7 @@
         <v>2</v>
       </c>
       <c r="M508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:13">
@@ -21262,7 +21262,7 @@
         <v>6</v>
       </c>
       <c r="M509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:13">
@@ -21303,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="M510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:13">
@@ -21344,7 +21344,7 @@
         <v>6</v>
       </c>
       <c r="M511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:13">
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="M512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:13">
@@ -21467,7 +21467,7 @@
         <v>2</v>
       </c>
       <c r="M514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:13">
@@ -21508,7 +21508,7 @@
         <v>2</v>
       </c>
       <c r="M515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:13">
@@ -21590,7 +21590,7 @@
         <v>6</v>
       </c>
       <c r="M517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:13">
@@ -21672,7 +21672,7 @@
         <v>2</v>
       </c>
       <c r="M519" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:13">
@@ -21795,7 +21795,7 @@
         <v>2</v>
       </c>
       <c r="M522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:13">
@@ -21877,7 +21877,7 @@
         <v>6</v>
       </c>
       <c r="M524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:13">
@@ -21918,7 +21918,7 @@
         <v>6</v>
       </c>
       <c r="M525" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="M526" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:13">
@@ -22000,7 +22000,7 @@
         <v>3</v>
       </c>
       <c r="M527" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:13">
@@ -22041,7 +22041,7 @@
         <v>6</v>
       </c>
       <c r="M528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -22082,7 +22082,7 @@
         <v>5</v>
       </c>
       <c r="M529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -22123,7 +22123,7 @@
         <v>1</v>
       </c>
       <c r="M530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:13">
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="M531" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -22205,7 +22205,7 @@
         <v>5</v>
       </c>
       <c r="M532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:13">
@@ -22246,7 +22246,7 @@
         <v>2</v>
       </c>
       <c r="M533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:13">
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="M534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:13">
@@ -22328,7 +22328,7 @@
         <v>6</v>
       </c>
       <c r="M535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:13">
@@ -22369,7 +22369,7 @@
         <v>1</v>
       </c>
       <c r="M536" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:13">
@@ -22451,7 +22451,7 @@
         <v>2</v>
       </c>
       <c r="M538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:13">
@@ -22492,7 +22492,7 @@
         <v>4</v>
       </c>
       <c r="M539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:13">
@@ -22574,7 +22574,7 @@
         <v>6</v>
       </c>
       <c r="M541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:13">
@@ -22615,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="M542" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:13">
@@ -22656,7 +22656,7 @@
         <v>2</v>
       </c>
       <c r="M543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:13">
@@ -22738,7 +22738,7 @@
         <v>5</v>
       </c>
       <c r="M545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:13">
@@ -22779,7 +22779,7 @@
         <v>2</v>
       </c>
       <c r="M546" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:13">
@@ -22820,7 +22820,7 @@
         <v>2</v>
       </c>
       <c r="M547" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:13">
@@ -22861,7 +22861,7 @@
         <v>4</v>
       </c>
       <c r="M548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:13">
@@ -22943,7 +22943,7 @@
         <v>3</v>
       </c>
       <c r="M550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:13">
@@ -23025,7 +23025,7 @@
         <v>2</v>
       </c>
       <c r="M552" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:13">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="M553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:13">
@@ -23107,7 +23107,7 @@
         <v>6</v>
       </c>
       <c r="M554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:13">
@@ -23148,7 +23148,7 @@
         <v>1</v>
       </c>
       <c r="M555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:13">
@@ -23189,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="M556" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:13">
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="M557" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:13">
@@ -23271,7 +23271,7 @@
         <v>5</v>
       </c>
       <c r="M558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:13">
@@ -23312,7 +23312,7 @@
         <v>2</v>
       </c>
       <c r="M559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:13">
@@ -23394,7 +23394,7 @@
         <v>2</v>
       </c>
       <c r="M561" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:13">
@@ -23435,7 +23435,7 @@
         <v>6</v>
       </c>
       <c r="M562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:13">
@@ -23476,7 +23476,7 @@
         <v>2</v>
       </c>
       <c r="M563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:13">
@@ -23517,7 +23517,7 @@
         <v>5</v>
       </c>
       <c r="M564" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:13">
@@ -23558,7 +23558,7 @@
         <v>4</v>
       </c>
       <c r="M565" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:13">
@@ -23640,7 +23640,7 @@
         <v>5</v>
       </c>
       <c r="M567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:13">
@@ -23681,7 +23681,7 @@
         <v>5</v>
       </c>
       <c r="M568" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:13">
@@ -23763,7 +23763,7 @@
         <v>4</v>
       </c>
       <c r="M570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:13">
@@ -23804,7 +23804,7 @@
         <v>5</v>
       </c>
       <c r="M571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:13">
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="M572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:13">
@@ -23886,7 +23886,7 @@
         <v>6</v>
       </c>
       <c r="M573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:13">
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="M574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:13">
@@ -23968,7 +23968,7 @@
         <v>5</v>
       </c>
       <c r="M575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:13">
@@ -24050,7 +24050,7 @@
         <v>3</v>
       </c>
       <c r="M577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:13">
@@ -24091,7 +24091,7 @@
         <v>5</v>
       </c>
       <c r="M578" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:13">
@@ -24132,7 +24132,7 @@
         <v>2</v>
       </c>
       <c r="M579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:13">
@@ -24214,7 +24214,7 @@
         <v>5</v>
       </c>
       <c r="M581" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:13">
@@ -24255,7 +24255,7 @@
         <v>0</v>
       </c>
       <c r="M582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:13">
@@ -24296,7 +24296,7 @@
         <v>3</v>
       </c>
       <c r="M583" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:13">
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="M584" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:13">
@@ -24378,7 +24378,7 @@
         <v>2</v>
       </c>
       <c r="M585" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:13">
@@ -24419,7 +24419,7 @@
         <v>1</v>
       </c>
       <c r="M586" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:13">
@@ -24460,7 +24460,7 @@
         <v>3</v>
       </c>
       <c r="M587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:13">
@@ -24501,7 +24501,7 @@
         <v>4</v>
       </c>
       <c r="M588" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:13">
@@ -24542,7 +24542,7 @@
         <v>5</v>
       </c>
       <c r="M589" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:13">
@@ -24583,7 +24583,7 @@
         <v>4</v>
       </c>
       <c r="M590" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:13">
@@ -24624,7 +24624,7 @@
         <v>1</v>
       </c>
       <c r="M591" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:13">
@@ -24665,7 +24665,7 @@
         <v>4</v>
       </c>
       <c r="M592" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:13">
@@ -24706,7 +24706,7 @@
         <v>3</v>
       </c>
       <c r="M593" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:13">
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="M596" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:13">
@@ -24993,7 +24993,7 @@
         <v>6</v>
       </c>
       <c r="M600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:13">
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="M601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:13">
@@ -25075,7 +25075,7 @@
         <v>4</v>
       </c>
       <c r="M602" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:13">
@@ -25157,7 +25157,7 @@
         <v>4</v>
       </c>
       <c r="M604" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:13">
@@ -25198,7 +25198,7 @@
         <v>4</v>
       </c>
       <c r="M605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:13">
@@ -25239,7 +25239,7 @@
         <v>4</v>
       </c>
       <c r="M606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:13">
@@ -25280,7 +25280,7 @@
         <v>3</v>
       </c>
       <c r="M607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:13">
@@ -25321,7 +25321,7 @@
         <v>1</v>
       </c>
       <c r="M608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:13">
@@ -25362,7 +25362,7 @@
         <v>4</v>
       </c>
       <c r="M609" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:13">
@@ -25403,7 +25403,7 @@
         <v>2</v>
       </c>
       <c r="M610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:13">
@@ -25485,7 +25485,7 @@
         <v>2</v>
       </c>
       <c r="M612" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:13">
@@ -25526,7 +25526,7 @@
         <v>3</v>
       </c>
       <c r="M613" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:13">
@@ -25567,7 +25567,7 @@
         <v>2</v>
       </c>
       <c r="M614" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:13">
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="M615" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:13">
@@ -25649,7 +25649,7 @@
         <v>6</v>
       </c>
       <c r="M616" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:13">
@@ -25690,7 +25690,7 @@
         <v>6</v>
       </c>
       <c r="M617" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:13">
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="M619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:13">
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="M620" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:13">
@@ -25854,7 +25854,7 @@
         <v>5</v>
       </c>
       <c r="M621" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:13">
@@ -25895,7 +25895,7 @@
         <v>6</v>
       </c>
       <c r="M622" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:13">
@@ -25936,7 +25936,7 @@
         <v>2</v>
       </c>
       <c r="M623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:13">
@@ -26018,7 +26018,7 @@
         <v>3</v>
       </c>
       <c r="M625" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:13">
@@ -26059,7 +26059,7 @@
         <v>6</v>
       </c>
       <c r="M626" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:13">
@@ -26100,7 +26100,7 @@
         <v>2</v>
       </c>
       <c r="M627" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:13">
@@ -26141,7 +26141,7 @@
         <v>5</v>
       </c>
       <c r="M628" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:13">
@@ -26182,7 +26182,7 @@
         <v>3</v>
       </c>
       <c r="M629" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:13">
@@ -26223,7 +26223,7 @@
         <v>4</v>
       </c>
       <c r="M630" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:13">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="M632" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:13">
@@ -26346,7 +26346,7 @@
         <v>6</v>
       </c>
       <c r="M633" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:13">
@@ -26387,7 +26387,7 @@
         <v>4</v>
       </c>
       <c r="M634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:13">
@@ -26469,7 +26469,7 @@
         <v>0</v>
       </c>
       <c r="M636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:13">
@@ -26551,7 +26551,7 @@
         <v>6</v>
       </c>
       <c r="M638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:13">
@@ -26592,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="M639" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:13">
@@ -26633,7 +26633,7 @@
         <v>6</v>
       </c>
       <c r="M640" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:13">
@@ -26674,7 +26674,7 @@
         <v>4</v>
       </c>
       <c r="M641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:13">
@@ -26715,7 +26715,7 @@
         <v>2</v>
       </c>
       <c r="M642" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:13">
@@ -26756,7 +26756,7 @@
         <v>2</v>
       </c>
       <c r="M643" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:13">
@@ -26797,7 +26797,7 @@
         <v>3</v>
       </c>
       <c r="M644" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:13">
@@ -26838,7 +26838,7 @@
         <v>0</v>
       </c>
       <c r="M645" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:13">
@@ -26879,7 +26879,7 @@
         <v>6</v>
       </c>
       <c r="M646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:13">
@@ -26920,7 +26920,7 @@
         <v>3</v>
       </c>
       <c r="M647" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:13">
@@ -26961,7 +26961,7 @@
         <v>1</v>
       </c>
       <c r="M648" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:13">
@@ -27002,7 +27002,7 @@
         <v>2</v>
       </c>
       <c r="M649" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:13">
@@ -27043,7 +27043,7 @@
         <v>5</v>
       </c>
       <c r="M650" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:13">
@@ -27084,7 +27084,7 @@
         <v>2</v>
       </c>
       <c r="M651" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:13">
@@ -27125,7 +27125,7 @@
         <v>4</v>
       </c>
       <c r="M652" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:13">
@@ -27166,7 +27166,7 @@
         <v>3</v>
       </c>
       <c r="M653" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:13">
@@ -27248,7 +27248,7 @@
         <v>0</v>
       </c>
       <c r="M655" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:13">
@@ -27289,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="M656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:13">
@@ -27412,7 +27412,7 @@
         <v>6</v>
       </c>
       <c r="M659" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:13">
@@ -27453,7 +27453,7 @@
         <v>3</v>
       </c>
       <c r="M660" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:13">
@@ -27494,7 +27494,7 @@
         <v>3</v>
       </c>
       <c r="M661" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:13">
@@ -27535,7 +27535,7 @@
         <v>5</v>
       </c>
       <c r="M662" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:13">
@@ -27576,7 +27576,7 @@
         <v>5</v>
       </c>
       <c r="M663" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:13">
@@ -27617,7 +27617,7 @@
         <v>4</v>
       </c>
       <c r="M664" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:13">
@@ -27658,7 +27658,7 @@
         <v>5</v>
       </c>
       <c r="M665" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:13">
@@ -27699,7 +27699,7 @@
         <v>6</v>
       </c>
       <c r="M666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:13">
@@ -27740,7 +27740,7 @@
         <v>6</v>
       </c>
       <c r="M667" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:13">
@@ -27781,7 +27781,7 @@
         <v>5</v>
       </c>
       <c r="M668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:13">
@@ -27822,7 +27822,7 @@
         <v>4</v>
       </c>
       <c r="M669" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:13">
@@ -27863,7 +27863,7 @@
         <v>1</v>
       </c>
       <c r="M670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:13">
@@ -27904,7 +27904,7 @@
         <v>2</v>
       </c>
       <c r="M671" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:13">
@@ -27945,7 +27945,7 @@
         <v>2</v>
       </c>
       <c r="M672" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:13">
@@ -27986,7 +27986,7 @@
         <v>6</v>
       </c>
       <c r="M673" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:13">
@@ -28027,7 +28027,7 @@
         <v>6</v>
       </c>
       <c r="M674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:13">
@@ -28068,7 +28068,7 @@
         <v>3</v>
       </c>
       <c r="M675" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:13">
@@ -28109,7 +28109,7 @@
         <v>6</v>
       </c>
       <c r="M676" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -28150,7 +28150,7 @@
         <v>1</v>
       </c>
       <c r="M677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:13">
@@ -28191,7 +28191,7 @@
         <v>6</v>
       </c>
       <c r="M678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:13">
@@ -28273,7 +28273,7 @@
         <v>5</v>
       </c>
       <c r="M680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:13">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="M681" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:13">
@@ -28355,7 +28355,7 @@
         <v>5</v>
       </c>
       <c r="M682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:13">
@@ -28396,7 +28396,7 @@
         <v>4</v>
       </c>
       <c r="M683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:13">
@@ -28437,7 +28437,7 @@
         <v>6</v>
       </c>
       <c r="M684" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:13">
@@ -28478,7 +28478,7 @@
         <v>6</v>
       </c>
       <c r="M685" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:13">
@@ -28519,7 +28519,7 @@
         <v>4</v>
       </c>
       <c r="M686" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:13">
@@ -28560,7 +28560,7 @@
         <v>4</v>
       </c>
       <c r="M687" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:13">
@@ -28642,7 +28642,7 @@
         <v>1</v>
       </c>
       <c r="M689" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:13">
@@ -28683,7 +28683,7 @@
         <v>0</v>
       </c>
       <c r="M690" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:13">
@@ -28724,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="M691" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:13">
@@ -28765,7 +28765,7 @@
         <v>1</v>
       </c>
       <c r="M692" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:13">
@@ -28888,7 +28888,7 @@
         <v>5</v>
       </c>
       <c r="M695" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:13">
@@ -28929,7 +28929,7 @@
         <v>1</v>
       </c>
       <c r="M696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:13">
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="M697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:13">
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="M699" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:13">
@@ -29134,7 +29134,7 @@
         <v>1</v>
       </c>
       <c r="M701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:13">
@@ -29175,7 +29175,7 @@
         <v>1</v>
       </c>
       <c r="M702" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:13">
@@ -29216,7 +29216,7 @@
         <v>3</v>
       </c>
       <c r="M703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:13">
@@ -29257,7 +29257,7 @@
         <v>1</v>
       </c>
       <c r="M704" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:13">
@@ -29298,7 +29298,7 @@
         <v>2</v>
       </c>
       <c r="M705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:13">
@@ -29339,7 +29339,7 @@
         <v>4</v>
       </c>
       <c r="M706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:13">
@@ -29380,7 +29380,7 @@
         <v>6</v>
       </c>
       <c r="M707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:13">
@@ -29421,7 +29421,7 @@
         <v>2</v>
       </c>
       <c r="M708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:13">
@@ -29462,7 +29462,7 @@
         <v>6</v>
       </c>
       <c r="M709" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:13">
@@ -29503,7 +29503,7 @@
         <v>4</v>
       </c>
       <c r="M710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:13">
@@ -29544,7 +29544,7 @@
         <v>3</v>
       </c>
       <c r="M711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:13">
@@ -29585,7 +29585,7 @@
         <v>3</v>
       </c>
       <c r="M712" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:13">
@@ -29626,7 +29626,7 @@
         <v>5</v>
       </c>
       <c r="M713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:13">
@@ -29667,7 +29667,7 @@
         <v>5</v>
       </c>
       <c r="M714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:13">
@@ -29708,7 +29708,7 @@
         <v>3</v>
       </c>
       <c r="M715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:13">
@@ -29749,7 +29749,7 @@
         <v>1</v>
       </c>
       <c r="M716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:13">
@@ -29790,7 +29790,7 @@
         <v>5</v>
       </c>
       <c r="M717" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:13">
@@ -29872,7 +29872,7 @@
         <v>1</v>
       </c>
       <c r="M719" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:13">
@@ -29954,7 +29954,7 @@
         <v>1</v>
       </c>
       <c r="M721" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:13">
@@ -29995,7 +29995,7 @@
         <v>5</v>
       </c>
       <c r="M722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:13">
@@ -30036,7 +30036,7 @@
         <v>2</v>
       </c>
       <c r="M723" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:13">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="M724" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:13">
@@ -30118,7 +30118,7 @@
         <v>0</v>
       </c>
       <c r="M725" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:13">
@@ -30159,7 +30159,7 @@
         <v>4</v>
       </c>
       <c r="M726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:13">
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="M727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:13">
@@ -30241,7 +30241,7 @@
         <v>2</v>
       </c>
       <c r="M728" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:13">
@@ -30282,7 +30282,7 @@
         <v>1</v>
       </c>
       <c r="M729" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:13">
@@ -30323,7 +30323,7 @@
         <v>6</v>
       </c>
       <c r="M730" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:13">
@@ -30405,7 +30405,7 @@
         <v>6</v>
       </c>
       <c r="M732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:13">
@@ -30446,7 +30446,7 @@
         <v>4</v>
       </c>
       <c r="M733" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:13">
@@ -30487,7 +30487,7 @@
         <v>6</v>
       </c>
       <c r="M734" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:13">
@@ -30528,7 +30528,7 @@
         <v>6</v>
       </c>
       <c r="M735" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:13">
@@ -30569,7 +30569,7 @@
         <v>0</v>
       </c>
       <c r="M736" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:13">
@@ -30610,7 +30610,7 @@
         <v>1</v>
       </c>
       <c r="M737" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:13">
@@ -30651,7 +30651,7 @@
         <v>4</v>
       </c>
       <c r="M738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:13">
@@ -30692,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="M739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:13">
@@ -30733,7 +30733,7 @@
         <v>6</v>
       </c>
       <c r="M740" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:13">
@@ -30774,7 +30774,7 @@
         <v>4</v>
       </c>
       <c r="M741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:13">
@@ -30856,7 +30856,7 @@
         <v>2</v>
       </c>
       <c r="M743" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:13">
@@ -30897,7 +30897,7 @@
         <v>5</v>
       </c>
       <c r="M744" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:13">
@@ -31020,7 +31020,7 @@
         <v>1</v>
       </c>
       <c r="M747" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:13">
@@ -31061,7 +31061,7 @@
         <v>0</v>
       </c>
       <c r="M748" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:13">
@@ -31102,7 +31102,7 @@
         <v>0</v>
       </c>
       <c r="M749" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:13">
@@ -31143,7 +31143,7 @@
         <v>4</v>
       </c>
       <c r="M750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:13">
@@ -31184,7 +31184,7 @@
         <v>4</v>
       </c>
       <c r="M751" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:13">
@@ -31266,7 +31266,7 @@
         <v>2</v>
       </c>
       <c r="M753" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:13">
@@ -31307,7 +31307,7 @@
         <v>6</v>
       </c>
       <c r="M754" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:13">
@@ -31389,7 +31389,7 @@
         <v>2</v>
       </c>
       <c r="M756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:13">
@@ -31471,7 +31471,7 @@
         <v>0</v>
       </c>
       <c r="M758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:13">
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="M761" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:13">
@@ -31676,7 +31676,7 @@
         <v>0</v>
       </c>
       <c r="M763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:13">
@@ -31717,7 +31717,7 @@
         <v>5</v>
       </c>
       <c r="M764" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:13">
@@ -31758,7 +31758,7 @@
         <v>0</v>
       </c>
       <c r="M765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:13">
@@ -31799,7 +31799,7 @@
         <v>5</v>
       </c>
       <c r="M766" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:13">
@@ -31840,7 +31840,7 @@
         <v>1</v>
       </c>
       <c r="M767" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:13">
@@ -31881,7 +31881,7 @@
         <v>5</v>
       </c>
       <c r="M768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:13">
@@ -31922,7 +31922,7 @@
         <v>3</v>
       </c>
       <c r="M769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:13">
@@ -32004,7 +32004,7 @@
         <v>0</v>
       </c>
       <c r="M771" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:13">
@@ -32086,7 +32086,7 @@
         <v>2</v>
       </c>
       <c r="M773" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:13">
@@ -32127,7 +32127,7 @@
         <v>0</v>
       </c>
       <c r="M774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:13">
@@ -32168,7 +32168,7 @@
         <v>6</v>
       </c>
       <c r="M775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:13">
@@ -32209,7 +32209,7 @@
         <v>0</v>
       </c>
       <c r="M776" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:13">
@@ -32332,7 +32332,7 @@
         <v>6</v>
       </c>
       <c r="M779" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:13">
@@ -32373,7 +32373,7 @@
         <v>5</v>
       </c>
       <c r="M780" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:13">
@@ -32414,7 +32414,7 @@
         <v>3</v>
       </c>
       <c r="M781" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:13">
@@ -32496,7 +32496,7 @@
         <v>0</v>
       </c>
       <c r="M783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:13">
@@ -32578,7 +32578,7 @@
         <v>6</v>
       </c>
       <c r="M785" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:13">
@@ -32619,7 +32619,7 @@
         <v>3</v>
       </c>
       <c r="M786" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:13">
@@ -32660,7 +32660,7 @@
         <v>1</v>
       </c>
       <c r="M787" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:13">
@@ -32701,7 +32701,7 @@
         <v>0</v>
       </c>
       <c r="M788" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:13">
@@ -32742,7 +32742,7 @@
         <v>5</v>
       </c>
       <c r="M789" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:13">
@@ -32783,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="M790" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:13">
@@ -32824,7 +32824,7 @@
         <v>5</v>
       </c>
       <c r="M791" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:13">
@@ -32865,7 +32865,7 @@
         <v>5</v>
       </c>
       <c r="M792" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:13">
@@ -32906,7 +32906,7 @@
         <v>2</v>
       </c>
       <c r="M793" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:13">
@@ -32947,7 +32947,7 @@
         <v>5</v>
       </c>
       <c r="M794" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:13">
@@ -33029,7 +33029,7 @@
         <v>5</v>
       </c>
       <c r="M796" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:13">
@@ -33111,7 +33111,7 @@
         <v>2</v>
       </c>
       <c r="M798" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:13">
@@ -33152,7 +33152,7 @@
         <v>5</v>
       </c>
       <c r="M799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:13">
@@ -33193,7 +33193,7 @@
         <v>2</v>
       </c>
       <c r="M800" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:13">
@@ -33234,7 +33234,7 @@
         <v>5</v>
       </c>
       <c r="M801" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:13">
@@ -33275,7 +33275,7 @@
         <v>4</v>
       </c>
       <c r="M802" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:13">
@@ -33357,7 +33357,7 @@
         <v>4</v>
       </c>
       <c r="M804" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:13">
@@ -33398,7 +33398,7 @@
         <v>2</v>
       </c>
       <c r="M805" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:13">
@@ -33439,7 +33439,7 @@
         <v>1</v>
       </c>
       <c r="M806" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:13">
@@ -33480,7 +33480,7 @@
         <v>5</v>
       </c>
       <c r="M807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:13">
@@ -33562,7 +33562,7 @@
         <v>1</v>
       </c>
       <c r="M809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:13">
@@ -33603,7 +33603,7 @@
         <v>0</v>
       </c>
       <c r="M810" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:13">
@@ -33644,7 +33644,7 @@
         <v>4</v>
       </c>
       <c r="M811" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:13">
@@ -33767,7 +33767,7 @@
         <v>2</v>
       </c>
       <c r="M814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:13">
@@ -33808,7 +33808,7 @@
         <v>4</v>
       </c>
       <c r="M815" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:13">
@@ -33849,7 +33849,7 @@
         <v>5</v>
       </c>
       <c r="M816" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:13">
@@ -33890,7 +33890,7 @@
         <v>0</v>
       </c>
       <c r="M817" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:13">
@@ -33931,7 +33931,7 @@
         <v>6</v>
       </c>
       <c r="M818" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:13">
@@ -33972,7 +33972,7 @@
         <v>6</v>
       </c>
       <c r="M819" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:13">
@@ -34013,7 +34013,7 @@
         <v>1</v>
       </c>
       <c r="M820" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:13">
@@ -34054,7 +34054,7 @@
         <v>0</v>
       </c>
       <c r="M821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:13">
@@ -34095,7 +34095,7 @@
         <v>3</v>
       </c>
       <c r="M822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:13">
@@ -34136,7 +34136,7 @@
         <v>1</v>
       </c>
       <c r="M823" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:13">
@@ -34177,7 +34177,7 @@
         <v>6</v>
       </c>
       <c r="M824" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:13">
@@ -34218,7 +34218,7 @@
         <v>6</v>
       </c>
       <c r="M825" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:13">
@@ -34259,7 +34259,7 @@
         <v>2</v>
       </c>
       <c r="M826" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:13">
@@ -34300,7 +34300,7 @@
         <v>4</v>
       </c>
       <c r="M827" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:13">
@@ -34341,7 +34341,7 @@
         <v>1</v>
       </c>
       <c r="M828" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:13">
@@ -34423,7 +34423,7 @@
         <v>2</v>
       </c>
       <c r="M830" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:13">
@@ -34505,7 +34505,7 @@
         <v>5</v>
       </c>
       <c r="M832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:13">
@@ -34546,7 +34546,7 @@
         <v>5</v>
       </c>
       <c r="M833" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:13">
@@ -34587,7 +34587,7 @@
         <v>0</v>
       </c>
       <c r="M834" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:13">
@@ -34669,7 +34669,7 @@
         <v>3</v>
       </c>
       <c r="M836" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:13">
@@ -34710,7 +34710,7 @@
         <v>1</v>
       </c>
       <c r="M837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:13">
@@ -34751,7 +34751,7 @@
         <v>3</v>
       </c>
       <c r="M838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:13">
@@ -34792,7 +34792,7 @@
         <v>5</v>
       </c>
       <c r="M839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:13">
@@ -34833,7 +34833,7 @@
         <v>4</v>
       </c>
       <c r="M840" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:13">
@@ -34874,7 +34874,7 @@
         <v>1</v>
       </c>
       <c r="M841" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:13">
@@ -34915,7 +34915,7 @@
         <v>3</v>
       </c>
       <c r="M842" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:13">
@@ -34956,7 +34956,7 @@
         <v>6</v>
       </c>
       <c r="M843" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:13">
@@ -35079,7 +35079,7 @@
         <v>0</v>
       </c>
       <c r="M846" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:13">
@@ -35202,7 +35202,7 @@
         <v>0</v>
       </c>
       <c r="M849" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:13">
@@ -35284,7 +35284,7 @@
         <v>3</v>
       </c>
       <c r="M851" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:13">
@@ -35325,7 +35325,7 @@
         <v>1</v>
       </c>
       <c r="M852" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:13">
@@ -35366,7 +35366,7 @@
         <v>5</v>
       </c>
       <c r="M853" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:13">
@@ -35407,7 +35407,7 @@
         <v>2</v>
       </c>
       <c r="M854" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:13">
@@ -35448,7 +35448,7 @@
         <v>4</v>
       </c>
       <c r="M855" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:13">
@@ -35489,7 +35489,7 @@
         <v>5</v>
       </c>
       <c r="M856" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:13">
@@ -35571,7 +35571,7 @@
         <v>4</v>
       </c>
       <c r="M858" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:13">
@@ -35612,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="M859" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:13">
@@ -35653,7 +35653,7 @@
         <v>6</v>
       </c>
       <c r="M860" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:13">
@@ -35694,7 +35694,7 @@
         <v>6</v>
       </c>
       <c r="M861" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:13">
@@ -35776,7 +35776,7 @@
         <v>4</v>
       </c>
       <c r="M863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:13">
@@ -35817,7 +35817,7 @@
         <v>2</v>
       </c>
       <c r="M864" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:13">
@@ -35858,7 +35858,7 @@
         <v>4</v>
       </c>
       <c r="M865" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:13">
@@ -35899,7 +35899,7 @@
         <v>3</v>
       </c>
       <c r="M866" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:13">
@@ -35940,7 +35940,7 @@
         <v>5</v>
       </c>
       <c r="M867" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:13">
@@ -36022,7 +36022,7 @@
         <v>3</v>
       </c>
       <c r="M869" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:13">
@@ -36063,7 +36063,7 @@
         <v>6</v>
       </c>
       <c r="M870" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:13">
@@ -36104,7 +36104,7 @@
         <v>6</v>
       </c>
       <c r="M871" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:13">
@@ -36145,7 +36145,7 @@
         <v>3</v>
       </c>
       <c r="M872" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:13">
@@ -36186,7 +36186,7 @@
         <v>0</v>
       </c>
       <c r="M873" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:13">
@@ -36227,7 +36227,7 @@
         <v>2</v>
       </c>
       <c r="M874" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:13">
@@ -36268,7 +36268,7 @@
         <v>6</v>
       </c>
       <c r="M875" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:13">
@@ -36350,7 +36350,7 @@
         <v>3</v>
       </c>
       <c r="M877" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:13">
@@ -36391,7 +36391,7 @@
         <v>1</v>
       </c>
       <c r="M878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:13">
@@ -36432,7 +36432,7 @@
         <v>4</v>
       </c>
       <c r="M879" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:13">
@@ -36514,7 +36514,7 @@
         <v>1</v>
       </c>
       <c r="M881" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:13">
@@ -36555,7 +36555,7 @@
         <v>4</v>
       </c>
       <c r="M882" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:13">
@@ -36596,7 +36596,7 @@
         <v>1</v>
       </c>
       <c r="M883" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:13">
@@ -36678,7 +36678,7 @@
         <v>2</v>
       </c>
       <c r="M885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:13">
@@ -36760,7 +36760,7 @@
         <v>3</v>
       </c>
       <c r="M887" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:13">
@@ -36842,7 +36842,7 @@
         <v>1</v>
       </c>
       <c r="M889" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:13">
@@ -36965,7 +36965,7 @@
         <v>4</v>
       </c>
       <c r="M892" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:13">
@@ -37006,7 +37006,7 @@
         <v>2</v>
       </c>
       <c r="M893" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:13">
@@ -37047,7 +37047,7 @@
         <v>1</v>
       </c>
       <c r="M894" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:13">
@@ -37088,7 +37088,7 @@
         <v>2</v>
       </c>
       <c r="M895" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:13">
@@ -37129,7 +37129,7 @@
         <v>1</v>
       </c>
       <c r="M896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:13">
@@ -37211,7 +37211,7 @@
         <v>1</v>
       </c>
       <c r="M898" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:13">
@@ -37252,7 +37252,7 @@
         <v>4</v>
       </c>
       <c r="M899" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:13">
@@ -37334,7 +37334,7 @@
         <v>1</v>
       </c>
       <c r="M901" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:13">
@@ -37375,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="M902" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:13">
@@ -37416,7 +37416,7 @@
         <v>5</v>
       </c>
       <c r="M903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:13">
@@ -37498,7 +37498,7 @@
         <v>5</v>
       </c>
       <c r="M905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:13">
@@ -37539,7 +37539,7 @@
         <v>6</v>
       </c>
       <c r="M906" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:13">
@@ -37621,7 +37621,7 @@
         <v>5</v>
       </c>
       <c r="M908" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:13">
@@ -37662,7 +37662,7 @@
         <v>3</v>
       </c>
       <c r="M909" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:13">
@@ -37703,7 +37703,7 @@
         <v>2</v>
       </c>
       <c r="M910" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:13">
@@ -37744,7 +37744,7 @@
         <v>5</v>
       </c>
       <c r="M911" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:13">
@@ -37826,7 +37826,7 @@
         <v>5</v>
       </c>
       <c r="M913" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:13">
@@ -37867,7 +37867,7 @@
         <v>5</v>
       </c>
       <c r="M914" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:13">
@@ -37908,7 +37908,7 @@
         <v>2</v>
       </c>
       <c r="M915" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:13">
@@ -37949,7 +37949,7 @@
         <v>4</v>
       </c>
       <c r="M916" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:13">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="M917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:13">
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="M918" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:13">
@@ -38072,7 +38072,7 @@
         <v>1</v>
       </c>
       <c r="M919" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:13">
@@ -38154,7 +38154,7 @@
         <v>6</v>
       </c>
       <c r="M921" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:13">
@@ -38195,7 +38195,7 @@
         <v>1</v>
       </c>
       <c r="M922" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:13">
@@ -38236,7 +38236,7 @@
         <v>4</v>
       </c>
       <c r="M923" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:13">
@@ -38277,7 +38277,7 @@
         <v>1</v>
       </c>
       <c r="M924" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:13">
@@ -38318,7 +38318,7 @@
         <v>3</v>
       </c>
       <c r="M925" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:13">
@@ -38359,7 +38359,7 @@
         <v>3</v>
       </c>
       <c r="M926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:13">
@@ -38400,7 +38400,7 @@
         <v>6</v>
       </c>
       <c r="M927" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:13">
@@ -38482,7 +38482,7 @@
         <v>4</v>
       </c>
       <c r="M929" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:13">
@@ -38523,7 +38523,7 @@
         <v>6</v>
       </c>
       <c r="M930" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:13">
@@ -38605,7 +38605,7 @@
         <v>5</v>
       </c>
       <c r="M932" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:13">
@@ -38646,7 +38646,7 @@
         <v>0</v>
       </c>
       <c r="M933" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:13">
@@ -38687,7 +38687,7 @@
         <v>5</v>
       </c>
       <c r="M934" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:13">
@@ -38769,7 +38769,7 @@
         <v>0</v>
       </c>
       <c r="M936" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:13">
@@ -38810,7 +38810,7 @@
         <v>2</v>
       </c>
       <c r="M937" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:13">
@@ -38851,7 +38851,7 @@
         <v>5</v>
       </c>
       <c r="M938" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:13">
@@ -38892,7 +38892,7 @@
         <v>1</v>
       </c>
       <c r="M939" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:13">
@@ -38933,7 +38933,7 @@
         <v>5</v>
       </c>
       <c r="M940" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:13">
@@ -39015,7 +39015,7 @@
         <v>0</v>
       </c>
       <c r="M942" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:13">
@@ -39056,7 +39056,7 @@
         <v>6</v>
       </c>
       <c r="M943" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:13">
@@ -39097,7 +39097,7 @@
         <v>6</v>
       </c>
       <c r="M944" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:13">
@@ -39138,7 +39138,7 @@
         <v>5</v>
       </c>
       <c r="M945" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:13">
@@ -39179,7 +39179,7 @@
         <v>4</v>
       </c>
       <c r="M946" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:13">
@@ -39220,7 +39220,7 @@
         <v>0</v>
       </c>
       <c r="M947" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:13">
@@ -39261,7 +39261,7 @@
         <v>1</v>
       </c>
       <c r="M948" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:13">
@@ -39302,7 +39302,7 @@
         <v>6</v>
       </c>
       <c r="M949" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:13">
@@ -39343,7 +39343,7 @@
         <v>4</v>
       </c>
       <c r="M950" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:13">
@@ -39466,7 +39466,7 @@
         <v>1</v>
       </c>
       <c r="M953" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:13">
@@ -39507,7 +39507,7 @@
         <v>5</v>
       </c>
       <c r="M954" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:13">
@@ -39589,7 +39589,7 @@
         <v>5</v>
       </c>
       <c r="M956" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:13">
@@ -39630,7 +39630,7 @@
         <v>3</v>
       </c>
       <c r="M957" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:13">
@@ -39671,7 +39671,7 @@
         <v>5</v>
       </c>
       <c r="M958" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:13">
@@ -39712,7 +39712,7 @@
         <v>5</v>
       </c>
       <c r="M959" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:13">
@@ -39753,7 +39753,7 @@
         <v>1</v>
       </c>
       <c r="M960" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:13">
@@ -39835,7 +39835,7 @@
         <v>3</v>
       </c>
       <c r="M962" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:13">
@@ -39876,7 +39876,7 @@
         <v>2</v>
       </c>
       <c r="M963" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:13">
@@ -39917,7 +39917,7 @@
         <v>4</v>
       </c>
       <c r="M964" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:13">
@@ -39958,7 +39958,7 @@
         <v>6</v>
       </c>
       <c r="M965" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:13">
@@ -39999,7 +39999,7 @@
         <v>3</v>
       </c>
       <c r="M966" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:13">
@@ -40081,7 +40081,7 @@
         <v>5</v>
       </c>
       <c r="M968" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:13">
@@ -40122,7 +40122,7 @@
         <v>1</v>
       </c>
       <c r="M969" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:13">
@@ -40204,7 +40204,7 @@
         <v>6</v>
       </c>
       <c r="M971" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:13">
@@ -40245,7 +40245,7 @@
         <v>4</v>
       </c>
       <c r="M972" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:13">
@@ -40286,7 +40286,7 @@
         <v>6</v>
       </c>
       <c r="M973" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:13">
@@ -40368,7 +40368,7 @@
         <v>2</v>
       </c>
       <c r="M975" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:13">
@@ -40409,7 +40409,7 @@
         <v>0</v>
       </c>
       <c r="M976" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:13">
@@ -40491,7 +40491,7 @@
         <v>4</v>
       </c>
       <c r="M978" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:13">
@@ -40532,7 +40532,7 @@
         <v>1</v>
       </c>
       <c r="M979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:13">
@@ -40573,7 +40573,7 @@
         <v>1</v>
       </c>
       <c r="M980" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:13">
@@ -40614,7 +40614,7 @@
         <v>5</v>
       </c>
       <c r="M981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:13">
@@ -40655,7 +40655,7 @@
         <v>1</v>
       </c>
       <c r="M982" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:13">
@@ -40737,7 +40737,7 @@
         <v>3</v>
       </c>
       <c r="M984" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:13">
@@ -40819,7 +40819,7 @@
         <v>2</v>
       </c>
       <c r="M986" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:13">
@@ -40860,7 +40860,7 @@
         <v>5</v>
       </c>
       <c r="M987" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:13">
@@ -40901,7 +40901,7 @@
         <v>0</v>
       </c>
       <c r="M988" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:13">
@@ -40942,7 +40942,7 @@
         <v>5</v>
       </c>
       <c r="M989" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:13">
@@ -40983,7 +40983,7 @@
         <v>1</v>
       </c>
       <c r="M990" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:13">
@@ -41024,7 +41024,7 @@
         <v>6</v>
       </c>
       <c r="M991" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:13">
@@ -41147,7 +41147,7 @@
         <v>5</v>
       </c>
       <c r="M994" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:13">
@@ -41188,7 +41188,7 @@
         <v>2</v>
       </c>
       <c r="M995" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:13">
@@ -41229,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="M996" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:13">
@@ -41270,7 +41270,7 @@
         <v>6</v>
       </c>
       <c r="M997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:13">
@@ -41311,7 +41311,7 @@
         <v>1</v>
       </c>
       <c r="M998" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:13">
@@ -41352,7 +41352,7 @@
         <v>3</v>
       </c>
       <c r="M999" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:13">
